--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2021_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2021_top_box_office.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$572,984,769</t>
+          <t>$804,793,477</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$212,609,036</t>
+          <t>$213,550,366</t>
         </is>
       </c>
     </row>
@@ -513,79 +513,79 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$164,616,321</t>
+          <t>$164,870,234</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>No Time to Die</t>
+          <t>Sing 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$160,772,007</t>
+          <t>$162,790,990</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A Quiet Place Part II</t>
+          <t>No Time to Die</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$160,072,261</t>
+          <t>$160,891,007</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ghostbusters: Afterlife</t>
+          <t>A Quiet Place Part II</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$122,378,960</t>
+          <t>$160,072,261</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Free Guy</t>
+          <t>Ghostbusters: Afterlife</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$121,626,598</t>
+          <t>$129,360,575</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jungle Cruise</t>
+          <t>Free Guy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$116,987,516</t>
+          <t>$121,626,598</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Godzilla vs. Kong</t>
+          <t>Jungle Cruise</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$99,597,705</t>
+          <t>$116,987,516</t>
         </is>
       </c>
     </row>
@@ -597,19 +597,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$93,404,911</t>
+          <t>$108,327,830</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Halloween Kills</t>
+          <t>Godzilla vs. Kong</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$92,002,155</t>
+          <t>$100,916,094</t>
         </is>
       </c>
     </row>
@@ -621,31 +621,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$90,628,329</t>
+          <t>$96,093,622</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cruella</t>
+          <t>Halloween Kills</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$86,103,234</t>
+          <t>$92,002,155</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sing 2</t>
+          <t>Cruella</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$74,883,155</t>
+          <t>$86,103,234</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$67,559,184</t>
+          <t>$70,592,228</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$65,579,078</t>
+          <t>$65,631,050</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$55,812,663</t>
+          <t>$55,817,425</t>
         </is>
       </c>
     </row>
@@ -736,36 +736,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Demon Slayer: Kimetsu no Yaiba - The Movie: Mugen Train</t>
+          <t>House of Gucci</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$49,505,008</t>
+          <t>$53,809,574</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Clifford the Big Red Dog</t>
+          <t>Demon Slayer: Kimetsu no Yaiba - The Movie: Mugen Train</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$48,947,356</t>
+          <t>$49,505,008</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>House of Gucci</t>
+          <t>Clifford the Big Red Dog</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$48,417,498</t>
+          <t>$48,947,356</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$48,242,510</t>
+          <t>$48,276,510</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$46,318,441</t>
+          <t>$46,536,687</t>
         </is>
       </c>
     </row>
@@ -808,120 +808,120 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Peter Rabbit 2: The Runaway</t>
+          <t>Mortal Kombat</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$40,501,717</t>
+          <t>$42,326,031</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAW Patrol: The Movie</t>
+          <t>Peter Rabbit 2: The Runaway</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$40,127,371</t>
+          <t>$40,501,717</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hitman's Wife's Bodyguard</t>
+          <t>PAW Patrol: The Movie</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$38,014,727</t>
+          <t>$40,127,371</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mortal Kombat</t>
+          <t>West Side Story</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$37,479,648</t>
+          <t>$38,530,322</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Don't Breathe 2</t>
+          <t>Hitman's Wife's Bodyguard</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$32,712,950</t>
+          <t>$38,014,727</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>In the Heights</t>
+          <t>The Matrix Resurrections</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$29,914,684</t>
+          <t>$37,686,805</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Snake Eyes</t>
+          <t>The King's Man</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$28,264,325</t>
+          <t>$37,176,373</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>West Side Story</t>
+          <t>Don't Breathe 2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$28,169,248</t>
+          <t>$32,712,950</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>The Matrix Resurrections</t>
+          <t>In the Heights</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$28,134,634</t>
+          <t>$29,975,167</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Wrath of Man</t>
+          <t>Snake Eyes</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$27,466,489</t>
+          <t>$28,264,325</t>
         </is>
       </c>
     </row>
@@ -933,55 +933,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$27,268,035</t>
+          <t>$27,568,035</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The Croods: A New Age</t>
+          <t>Wrath of Man</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$26,234,535</t>
+          <t>$27,466,489</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Escape Room: Tournament of Champions</t>
+          <t>American Underdog</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$25,314,753</t>
+          <t>$26,514,814</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Respect</t>
+          <t>Escape Room: Tournament of Champions</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$24,278,399</t>
+          <t>$25,314,753</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Wonder Woman 1984</t>
+          <t>Respect</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$23,773,929</t>
+          <t>$24,278,399</t>
         </is>
       </c>
     </row>
@@ -1017,43 +1017,43 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$17,635,215</t>
+          <t>$17,716,215</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>The Green Knight</t>
+          <t>Licorice Pizza</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$17,173,321</t>
+          <t>$17,318,007</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Resident Evil: Welcome to Raccoon City</t>
+          <t>The Green Knight</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$16,923,891</t>
+          <t>$17,173,321</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The King's Man</t>
+          <t>Resident Evil: Welcome to Raccoon City</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$16,258,724</t>
+          <t>$17,000,612</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$15,976,770</t>
+          <t>$16,124,375</t>
         </is>
       </c>
     </row>
@@ -1101,31 +1101,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$15,340,534</t>
+          <t>$15,342,746</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dear Evan Hansen</t>
+          <t>King Richard</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$15,002,646</t>
+          <t>$15,129,285</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>King Richard</t>
+          <t>Dear Evan Hansen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$14,721,229</t>
+          <t>$15,002,646</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$13,351,893</t>
+          <t>$13,391,791</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>American Underdog</t>
+          <t>Nightmare Alley</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$12,213,600</t>
+          <t>$11,338,107</t>
         </is>
       </c>
     </row>
@@ -1233,67 +1233,67 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$10,183,309</t>
+          <t>$10,310,734</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Monster Hunter</t>
+          <t>Last Night in Soho</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$10,144,067</t>
+          <t>$10,127,625</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Last Night in Soho</t>
+          <t>Belfast</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$10,127,625</t>
+          <t>$9,250,870</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>News of the World</t>
+          <t>The Many Saints of Newark</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$8,951,155</t>
+          <t>$8,237,403</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The Many Saints of Newark</t>
+          <t>The Protégé</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$7,628,768</t>
+          <t>$7,446,823</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>The Protégé</t>
+          <t>Those Who Wish Me Dead</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$7,446,823</t>
+          <t>$7,407,200</t>
         </is>
       </c>
     </row>
@@ -1324,900 +1324,900 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Belfast</t>
+          <t>The Courier</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$6,885,925</t>
+          <t>$6,613,432</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nightmare Alley</t>
+          <t>A Journal for Jordan</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$6,878,302</t>
+          <t>$6,545,174</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Those Who Wish Me Dead</t>
+          <t>Judas and the Black Messiah</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$6,853,610</t>
+          <t>$5,478,009</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>The Courier</t>
+          <t>Roadrunner: A Film About Anthony Bourdain</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$6,613,432</t>
+          <t>$5,354,970</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Judas and the Black Messiah</t>
+          <t>Copshop</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$5,466,990</t>
+          <t>$5,213,243</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Licorice Pizza</t>
+          <t>Zola</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$5,444,149</t>
+          <t>$4,844,399</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Promising Young Woman</t>
+          <t>Separation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$5,252,785</t>
+          <t>$4,509,143</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Roadrunner: A Film About Anthony Bourdain</t>
+          <t>Boogie</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$5,249,970</t>
+          <t>$4,178,620</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Copshop</t>
+          <t>'83</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$5,213,243</t>
+          <t>$4,055,660</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Zola</t>
+          <t>Reminiscence</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$4,844,399</t>
+          <t>$3,900,193</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Separation</t>
+          <t>Nomadland</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$4,509,143</t>
+          <t>$3,700,000</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Boogie</t>
+          <t>12 Mighty Orphans</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$4,178,620</t>
+          <t>$3,689,637</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fatale</t>
+          <t>House of the Sun</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$3,918,764</t>
+          <t>$3,547,776</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A Journal for Jordan</t>
+          <t>Pig</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$3,905,919</t>
+          <t>$3,186,668</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Reminiscence</t>
+          <t>The Girl Who Believes in Miracles</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$3,900,193</t>
+          <t>$3,163,362</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>12 Mighty Orphans</t>
+          <t>Voyagers</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$3,689,952</t>
+          <t>$3,149,935</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>House of the Sun</t>
+          <t>Minari</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$3,547,776</t>
+          <t>$3,110,580</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>The Most Reluctant Convert</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$3,186,668</t>
+          <t>$3,032,744</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The Girl Who Believes in Miracles</t>
+          <t>Dream Horse</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$3,162,012</t>
+          <t>$2,913,328</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Voyagers</t>
+          <t>The House Next Door: Meet the Blacks 2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$3,149,935</t>
+          <t>$2,893,660</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Minari</t>
+          <t>Here Today</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$3,110,580</t>
+          <t>$2,807,494</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>'83</t>
+          <t>Finding You</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$3,024,933</t>
+          <t>$2,753,985</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dream Horse</t>
+          <t>Lamb</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$2,913,328</t>
+          <t>$2,676,410</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The House Next Door: Meet the Blacks 2</t>
+          <t>The Card Counter</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$2,857,187</t>
+          <t>$2,657,850</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Here Today</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$2,807,494</t>
+          <t>$2,577,830</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Finding You</t>
+          <t>The Eyes of Tammy Faye</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$2,753,985</t>
+          <t>$2,404,127</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lamb</t>
+          <t>Drive My Car</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$2,676,410</t>
+          <t>$2,352,240</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>The Card Counter</t>
+          <t>Summer of Soul (...Or, When the Revolution Could Not Be Televised)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$2,657,850</t>
+          <t>$2,320,649</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>Parallel Mothers</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$2,577,830</t>
+          <t>$2,297,501</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>The War with Grandpa</t>
+          <t>Scoob!</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$2,575,698</t>
+          <t>$2,188,425</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>The Eyes of Tammy Faye</t>
+          <t>After We Fell</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$2,404,127</t>
+          <t>$2,170,750</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Summer of Soul (...Or, When the Revolution Could Not Be Televised)</t>
+          <t>The Father</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$2,320,649</t>
+          <t>$2,122,771</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>After We Fell</t>
+          <t>Queen Bees</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$2,170,750</t>
+          <t>$1,926,706</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Queen Bees</t>
+          <t>C'mon C'mon</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$1,926,706</t>
+          <t>$1,863,674</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>The Father</t>
+          <t>Show Me the Father</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$1,852,442</t>
+          <t>$1,803,226</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Show Me the Father</t>
+          <t>Honsla Rakh</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$1,803,226</t>
+          <t>$1,800,000</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C'mon C'mon</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$1,793,749</t>
+          <t>$1,744,740</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Profile</t>
+          <t>Titane</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$1,744,740</t>
+          <t>$1,442,988</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Titane</t>
+          <t>Together Together</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$1,442,988</t>
+          <t>$1,437,938</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Together Together</t>
+          <t>Joe Bell</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$1,437,951</t>
+          <t>$1,405,488</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Joe Bell</t>
+          <t>Pushpa: The Rise - Part 1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$1,405,488</t>
+          <t>$1,320,000</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Nomadland</t>
+          <t>Wrong Turn</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$1,393,000</t>
+          <t>$1,251,184</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Pinocchio</t>
+          <t>God's Not Dead: We the People</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$1,342,880</t>
+          <t>$1,170,367</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Pushpa: The Rise - Part 1</t>
+          <t>In the Earth</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$1,320,000</t>
+          <t>$1,113,723</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Scott Pilgrim vs. the World10th Anniversary (2021 Re-release)</t>
+          <t>The Rescue</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$1,253,415</t>
+          <t>$1,060,556</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wrong Turn</t>
+          <t>Sword Art Online: Progressive - Aria of a Starless Night</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$1,213,800</t>
+          <t>$1,050,000</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Honsla Rakh</t>
+          <t>True to the Game 3</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$1,196,000</t>
+          <t>$1,038,255</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>God's Not Dead: We the People</t>
+          <t>Red Rocket</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$1,170,367</t>
+          <t>$1,023,086</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>In the Earth</t>
+          <t>Long Weekend</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$1,083,576</t>
+          <t>$1,018,532</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>The Rescue</t>
+          <t>The Jesus Music</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$1,060,556</t>
+          <t>$1,016,725</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sword Art Online: Progressive - Aria of a Starless Night</t>
+          <t>Love Story</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$971,000</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>True to the Game 3</t>
+          <t>National Lampoon's Christmas Vacation2021 Re-release</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$1,038,255</t>
+          <t>$939,753</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Long Weekend</t>
+          <t>Little Eggs: An African Rescue</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$1,018,532</t>
+          <t>$927,154</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>The Jesus Music</t>
+          <t>Witnesses</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$1,016,725</t>
+          <t>$855,765</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Love Story</t>
+          <t>The Alpinist</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$971,000</t>
+          <t>$844,743</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Come Play</t>
+          <t>Four Good Days</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$970,450</t>
+          <t>$837,849</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Little Eggs: An African Rescue</t>
+          <t>The Mauritanian</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$927,154</t>
+          <t>$836,536</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Witnesses</t>
+          <t>Harry Potter and the Sorcerer's Stone2021 Re-release</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$855,765</t>
+          <t>$799,342</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Scoob!</t>
+          <t>Blue Bayou</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$850,000</t>
+          <t>$788,675</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>The Alpinist</t>
+          <t>L'Arracheuse de temps</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$844,743</t>
+          <t>$750,623</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Four Good Days</t>
+          <t>Lamb of God: The Concert Film</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$837,849</t>
+          <t>$744,813</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>The Mauritanian</t>
+          <t>French Exit</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$836,536</t>
+          <t>$741,895</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lamb of God: The Concert Film</t>
+          <t>Nine Days</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$744,812</t>
+          <t>$694,849</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Blue Bayou</t>
+          <t>Aline</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$738,175</t>
+          <t>$667,815</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>French Exit</t>
+          <t>Our Friend</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$734,814</t>
+          <t>$663,725</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>L'Arracheuse de temps</t>
+          <t>The Sparks Brothers</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$719,853</t>
+          <t>$648,665</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nine Days</t>
+          <t>Chal Mera Putt 3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$694,385</t>
+          <t>$644,000</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Our Friend</t>
+          <t>If I Can't Have Love, I Want Power</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$657,351</t>
+          <t>$626,946</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Chal Mera Putt 3</t>
+          <t>The Matrix2021 Re-release</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$644,000</t>
+          <t>$596,998</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>The Sparks Brothers</t>
+          <t>Werewolves Within</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$637,665</t>
+          <t>$575,783</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>If I Can't Have Love, I Want Power</t>
+          <t>City of Lies</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$626,946</t>
+          <t>$572,493</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Aline</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring2020 Re-release</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$587,156</t>
+          <t>$570,670</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Werewolves Within</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$575,783</t>
+          <t>$556,632</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>City of Lies</t>
+          <t>Abominable2021 Re-release</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$572,493</t>
+          <t>$554,000</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>The Truffle Hunters</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$556,632</t>
+          <t>$521,202</t>
         </is>
       </c>
     </row>
@@ -2236,43 +2236,43 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>The Truffle Hunters</t>
+          <t>For the Love of Money</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$491,402</t>
+          <t>$480,774</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>For the Love of Money</t>
+          <t>National Champions</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$480,774</t>
+          <t>$475,488</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>National Champions</t>
+          <t>Jathi Ratnalu</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$475,488</t>
+          <t>$470,000</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Jathi Ratnalu</t>
+          <t>Most Eligible Bachelor</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,108 +2284,108 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Most Eligible Bachelor</t>
+          <t>Top Gun2021 Re-release</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$470,000</t>
+          <t>$457,577</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Tenet</t>
+          <t>World War Z2021 Re-release</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$459,940</t>
+          <t>$448,000</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>World War Z2021 Re-release</t>
+          <t>The Lost Leonardo</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$448,000</t>
+          <t>$445,740</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>The Lost Leonardo</t>
+          <t>2021 Oscar Nominated Short Films: Live Action</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$445,019</t>
+          <t>$443,050</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021 Oscar Nominated Short Films: Live Action</t>
+          <t>Flag Day</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$443,050</t>
+          <t>$424,667</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Flag Day</t>
+          <t>Willy's Wonderland</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$424,667</t>
+          <t>$418,286</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Willy's Wonderland</t>
+          <t>Crisis</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$417,706</t>
+          <t>$404,738</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Top Gun2021 Re-release</t>
+          <t>Dutch</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$408,937</t>
+          <t>$404,371</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Dutch</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$404,371</t>
+          <t>$399,811</t>
         </is>
       </c>
     </row>
@@ -2416,60 +2416,60 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Crisis</t>
+          <t>Raging Fire</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$380,460</t>
+          <t>$385,305</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Red Rocket</t>
+          <t>The Water Man</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$379,585</t>
+          <t>$383,234</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Ghost in the Shell2021 4K Remaster</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$375,817</t>
+          <t>$373,169</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ghost in the Shell2021 4K Remaster</t>
+          <t>The Dry</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$373,169</t>
+          <t>$364,237</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>The Dry</t>
+          <t>Benedetta</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$362,857</t>
+          <t>$354,481</t>
         </is>
       </c>
     </row>
@@ -2488,360 +2488,360 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>The Battle at Lake Changjin</t>
+          <t>Escape from Mogadishu</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$342,318</t>
+          <t>$346,271</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>The Emperor's New Groove2021 Re-release</t>
+          <t>The Battle at Lake Changjin</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$334,000</t>
+          <t>$342,411</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Benedetta</t>
+          <t>Flee</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$332,257</t>
+          <t>$339,754</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Freaky</t>
+          <t>The Emperor's New Groove2021 Re-release</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$328,795</t>
+          <t>$334,000</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Drive My Car</t>
+          <t>Final Account</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$310,524</t>
+          <t>$308,976</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Final Account</t>
+          <t>New Order</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$308,976</t>
+          <t>$303,556</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>The Water Man</t>
+          <t>India Sweets and Spices</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$304,602</t>
+          <t>$288,714</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>New Order</t>
+          <t>Ends of the Earth</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$303,556</t>
+          <t>$286,356</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>India Sweets and Spices</t>
+          <t>Blithe Spirit</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$288,714</t>
+          <t>$282,500</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Blithe Spirit</t>
+          <t>American Skin</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$282,499</t>
+          <t>$282,332</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>American Skin</t>
+          <t>I'm Your Man</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$282,332</t>
+          <t>$275,155</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>I'm Your Man</t>
+          <t>A Mouthful of Air</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$275,155</t>
+          <t>$269,435</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Escape from Mogadishu</t>
+          <t>Rita Moreno: Just a Girl Who Decided to Go for It</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$271,710</t>
+          <t>$264,626</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Raging Fire</t>
+          <t>Once I Was Engaged</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$270,275</t>
+          <t>$254,775</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A Mouthful of Air</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$269,435</t>
+          <t>$234,220</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Rita Moreno: Just a Girl Who Decided to Go for It</t>
+          <t>Becoming Cousteau</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$264,626</t>
+          <t>$231,687</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Weathering with You</t>
+          <t>Limbo</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$257,893</t>
+          <t>$224,405</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Once I Was Engaged</t>
+          <t>Together</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$254,775</t>
+          <t>$214,390</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>The Swimming Pool2021 Re-release</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$234,220</t>
+          <t>$211,467</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Becoming Cousteau</t>
+          <t>Ailey</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$231,687</t>
+          <t>$204,513</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Half Brothers</t>
+          <t>The Witches</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$225,830</t>
+          <t>$203,571</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Limbo</t>
+          <t>Groundhog Day2021 Re-release</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$224,405</t>
+          <t>$200,989</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Promare</t>
+          <t>The Resort</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$215,728</t>
+          <t>$191,996</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Together</t>
+          <t>Kaamelott: First Installment</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$214,390</t>
+          <t>$188,000</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>The Swimming Pool2021 Re-release</t>
+          <t>My Country, My Parents</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$211,467</t>
+          <t>$177,133</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Ailey</t>
+          <t>Earwig and the Witch</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$204,513</t>
+          <t>$173,704</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Groundhog Day2021 Re-release</t>
+          <t>I Carry You with Me</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$200,989</t>
+          <t>$166,403</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>The Resort</t>
+          <t>Une révision</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$191,996</t>
+          <t>$161,074</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Kaamelott: First Installment</t>
+          <t>A Writer's Odyssey</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$188,000</t>
+          <t>$160,013</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Earwig and the Witch</t>
+          <t>Shiva Baby</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$173,704</t>
+          <t>$159,294</t>
         </is>
       </c>
     </row>
